--- a/styleTest.xlsx
+++ b/styleTest.xlsx
@@ -14,15 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>公司報表_台電</t>
   </si>
   <si>
-    <t>站台營運服務狀態</t>
+    <t xml:space="preserve">  公司　台電</t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve">  報表產生時間　2022/09/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  報告內容時間　2022/06/01~2022/08/31</t>
+  </si>
+  <si>
+    <t>站台營運服務狀態</t>
   </si>
 </sst>
 </file>
@@ -68,7 +74,7 @@
       <name val="微軟正黑體"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +90,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2E7EA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -135,10 +147,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -570,39 +585,17 @@
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="2"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -613,36 +606,20 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="6">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>3</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7">
-        <v>5</v>
-      </c>
-      <c r="G6" s="7">
-        <v>6</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>8</v>
-      </c>
-      <c r="J6" s="7">
-        <v>9</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="2"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -653,36 +630,20 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2">
-        <v>7</v>
-      </c>
-      <c r="I7" s="2">
-        <v>8</v>
-      </c>
-      <c r="J7" s="2">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="2"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -693,36 +654,20 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2">
-        <v>8</v>
-      </c>
-      <c r="J8" s="2">
-        <v>9</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="2"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -733,36 +678,18 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2">
-        <v>8</v>
-      </c>
-      <c r="J9" s="2">
-        <v>9</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="2"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -773,33 +700,15 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2">
-        <v>7</v>
-      </c>
-      <c r="I10" s="2">
-        <v>8</v>
-      </c>
-      <c r="J10" s="2">
-        <v>9</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -813,33 +722,15 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2">
-        <v>6</v>
-      </c>
-      <c r="H11" s="2">
-        <v>7</v>
-      </c>
-      <c r="I11" s="2">
-        <v>8</v>
-      </c>
-      <c r="J11" s="2">
-        <v>9</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -853,36 +744,20 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="2">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2">
-        <v>6</v>
-      </c>
-      <c r="H12" s="2">
-        <v>7</v>
-      </c>
-      <c r="I12" s="2">
-        <v>8</v>
-      </c>
-      <c r="J12" s="2">
-        <v>9</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="2"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -893,33 +768,15 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>6</v>
-      </c>
-      <c r="H13" s="2">
-        <v>7</v>
-      </c>
-      <c r="I13" s="2">
-        <v>8</v>
-      </c>
-      <c r="J13" s="2">
-        <v>9</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -933,33 +790,15 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>6</v>
-      </c>
-      <c r="H14" s="2">
-        <v>7</v>
-      </c>
-      <c r="I14" s="2">
-        <v>8</v>
-      </c>
-      <c r="J14" s="2">
-        <v>9</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -973,33 +812,17 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="8">
+      <c r="B15" s="2"/>
+      <c r="C15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>6</v>
-      </c>
-      <c r="H15" s="2">
-        <v>7</v>
-      </c>
-      <c r="I15" s="2">
-        <v>8</v>
-      </c>
-      <c r="J15" s="2">
-        <v>9</v>
-      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1013,33 +836,17 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2">
-        <v>6</v>
-      </c>
-      <c r="H16" s="2">
-        <v>7</v>
-      </c>
-      <c r="I16" s="2">
-        <v>8</v>
-      </c>
-      <c r="J16" s="2">
-        <v>9</v>
-      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1054,11 +861,13 @@
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1076,11 +885,11 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1098,11 +907,11 @@
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1120,11 +929,11 @@
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1163,15 +972,33 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4</v>
+      </c>
+      <c r="F22" s="8">
+        <v>5</v>
+      </c>
+      <c r="G22" s="8">
+        <v>6</v>
+      </c>
+      <c r="H22" s="8">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8">
+        <v>9</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1185,15 +1012,33 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2">
+        <v>7</v>
+      </c>
+      <c r="I23" s="2">
+        <v>8</v>
+      </c>
+      <c r="J23" s="2">
+        <v>9</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1207,15 +1052,33 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2">
+        <v>7</v>
+      </c>
+      <c r="I24" s="2">
+        <v>8</v>
+      </c>
+      <c r="J24" s="2">
+        <v>9</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1229,15 +1092,33 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>6</v>
+      </c>
+      <c r="H25" s="2">
+        <v>7</v>
+      </c>
+      <c r="I25" s="2">
+        <v>8</v>
+      </c>
+      <c r="J25" s="2">
+        <v>9</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1251,15 +1132,33 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6</v>
+      </c>
+      <c r="H26" s="2">
+        <v>7</v>
+      </c>
+      <c r="I26" s="2">
+        <v>8</v>
+      </c>
+      <c r="J26" s="2">
+        <v>9</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1273,15 +1172,33 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>6</v>
+      </c>
+      <c r="H27" s="2">
+        <v>7</v>
+      </c>
+      <c r="I27" s="2">
+        <v>8</v>
+      </c>
+      <c r="J27" s="2">
+        <v>9</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1295,15 +1212,33 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2">
+        <v>7</v>
+      </c>
+      <c r="I28" s="2">
+        <v>8</v>
+      </c>
+      <c r="J28" s="2">
+        <v>9</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1317,15 +1252,33 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>6</v>
+      </c>
+      <c r="H29" s="2">
+        <v>7</v>
+      </c>
+      <c r="I29" s="2">
+        <v>8</v>
+      </c>
+      <c r="J29" s="2">
+        <v>9</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1339,15 +1292,33 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>6</v>
+      </c>
+      <c r="H30" s="2">
+        <v>7</v>
+      </c>
+      <c r="I30" s="2">
+        <v>8</v>
+      </c>
+      <c r="J30" s="2">
+        <v>9</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1361,15 +1332,33 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>6</v>
+      </c>
+      <c r="H31" s="2">
+        <v>7</v>
+      </c>
+      <c r="I31" s="2">
+        <v>8</v>
+      </c>
+      <c r="J31" s="2">
+        <v>9</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1383,15 +1372,33 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2">
+        <v>6</v>
+      </c>
+      <c r="H32" s="2">
+        <v>7</v>
+      </c>
+      <c r="I32" s="2">
+        <v>8</v>
+      </c>
+      <c r="J32" s="2">
+        <v>9</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -5100,6 +5107,15 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/styleTest.xlsx
+++ b/styleTest.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="-28920" yWindow="-1410" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="台電測試站" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="台電測試站" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>公司報表_台電</t>
   </si>
@@ -29,6 +29,45 @@
   </si>
   <si>
     <t>站台營運服務狀態</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  各站台 MXview 主機營運狀況</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  以是否發生 MXview One Server Alert 區分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Critical Site  當月發生過 Critical Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Warning Site  當月未發生Critical Event 但有 Warning Event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Health Site  當月未發生 Critical Event 和 Warning Event</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Health Site</t>
+  </si>
+  <si>
+    <t>Warning Site</t>
+  </si>
+  <si>
+    <t>Critical Site</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>八月</t>
   </si>
 </sst>
 </file>
@@ -136,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -154,9 +193,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -182,10 +218,93 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5143500" cy="2857500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5143500" cy="2857500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="自訂 2">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,19 +318,19 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="00AA8D"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="D86E22"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="D0021B"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -258,23 +377,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -310,23 +412,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,19 +562,29 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T200"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="4.125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -814,7 +909,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -838,7 +933,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -862,7 +957,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -885,7 +980,9 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -907,7 +1004,9 @@
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -972,33 +1071,15 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8">
-        <v>2</v>
-      </c>
-      <c r="D22" s="8">
-        <v>3</v>
-      </c>
-      <c r="E22" s="8">
-        <v>4</v>
-      </c>
-      <c r="F22" s="8">
-        <v>5</v>
-      </c>
-      <c r="G22" s="8">
-        <v>6</v>
-      </c>
-      <c r="H22" s="8">
-        <v>7</v>
-      </c>
-      <c r="I22" s="8">
-        <v>8</v>
-      </c>
-      <c r="J22" s="8">
-        <v>9</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1012,33 +1093,25 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="9">
-        <v>1</v>
+      <c r="B23" s="2"/>
+      <c r="C23" s="7" t="s">
+        <v>10</v>
       </c>
-      <c r="C23" s="2">
-        <v>2</v>
+      <c r="D23" s="7" t="s">
+        <v>11</v>
       </c>
-      <c r="D23" s="2">
-        <v>3</v>
+      <c r="E23" s="7" t="s">
+        <v>12</v>
       </c>
-      <c r="E23" s="2">
-        <v>4</v>
+      <c r="F23" s="7" t="s">
+        <v>13</v>
       </c>
-      <c r="F23" s="2">
-        <v>5</v>
+      <c r="G23" s="7" t="s">
+        <v>14</v>
       </c>
-      <c r="G23" s="2">
-        <v>6</v>
-      </c>
-      <c r="H23" s="2">
-        <v>7</v>
-      </c>
-      <c r="I23" s="2">
-        <v>8</v>
-      </c>
-      <c r="J23" s="2">
-        <v>9</v>
-      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1052,33 +1125,25 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="9">
+      <c r="B24" s="2"/>
+      <c r="C24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2">
+        <v>97</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="2">
-        <v>2</v>
+      <c r="G24" s="2">
+        <v>100</v>
       </c>
-      <c r="D24" s="2">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2">
-        <v>4</v>
-      </c>
-      <c r="F24" s="2">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2">
-        <v>6</v>
-      </c>
-      <c r="H24" s="2">
-        <v>7</v>
-      </c>
-      <c r="I24" s="2">
-        <v>8</v>
-      </c>
-      <c r="J24" s="2">
-        <v>9</v>
-      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1092,33 +1157,25 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="9">
+      <c r="B25" s="2"/>
+      <c r="C25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2">
+        <v>97</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="2">
-        <v>2</v>
+      <c r="G25" s="2">
+        <v>100</v>
       </c>
-      <c r="D25" s="2">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2">
-        <v>4</v>
-      </c>
-      <c r="F25" s="2">
-        <v>5</v>
-      </c>
-      <c r="G25" s="2">
-        <v>6</v>
-      </c>
-      <c r="H25" s="2">
-        <v>7</v>
-      </c>
-      <c r="I25" s="2">
-        <v>8</v>
-      </c>
-      <c r="J25" s="2">
-        <v>9</v>
-      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1132,33 +1189,25 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="9">
+      <c r="B26" s="2"/>
+      <c r="C26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2">
+        <v>97</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="2">
-        <v>2</v>
+      <c r="G26" s="2">
+        <v>100</v>
       </c>
-      <c r="D26" s="2">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2">
-        <v>4</v>
-      </c>
-      <c r="F26" s="2">
-        <v>5</v>
-      </c>
-      <c r="G26" s="2">
-        <v>6</v>
-      </c>
-      <c r="H26" s="2">
-        <v>7</v>
-      </c>
-      <c r="I26" s="2">
-        <v>8</v>
-      </c>
-      <c r="J26" s="2">
-        <v>9</v>
-      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1172,33 +1221,15 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2">
-        <v>4</v>
-      </c>
-      <c r="F27" s="2">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2">
-        <v>6</v>
-      </c>
-      <c r="H27" s="2">
-        <v>7</v>
-      </c>
-      <c r="I27" s="2">
-        <v>8</v>
-      </c>
-      <c r="J27" s="2">
-        <v>9</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1212,33 +1243,15 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2">
-        <v>3</v>
-      </c>
-      <c r="E28" s="2">
-        <v>4</v>
-      </c>
-      <c r="F28" s="2">
-        <v>5</v>
-      </c>
-      <c r="G28" s="2">
-        <v>6</v>
-      </c>
-      <c r="H28" s="2">
-        <v>7</v>
-      </c>
-      <c r="I28" s="2">
-        <v>8</v>
-      </c>
-      <c r="J28" s="2">
-        <v>9</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1252,33 +1265,15 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="9">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2">
-        <v>3</v>
-      </c>
-      <c r="E29" s="2">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2">
-        <v>5</v>
-      </c>
-      <c r="G29" s="2">
-        <v>6</v>
-      </c>
-      <c r="H29" s="2">
-        <v>7</v>
-      </c>
-      <c r="I29" s="2">
-        <v>8</v>
-      </c>
-      <c r="J29" s="2">
-        <v>9</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1292,33 +1287,15 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2">
-        <v>4</v>
-      </c>
-      <c r="F30" s="2">
-        <v>5</v>
-      </c>
-      <c r="G30" s="2">
-        <v>6</v>
-      </c>
-      <c r="H30" s="2">
-        <v>7</v>
-      </c>
-      <c r="I30" s="2">
-        <v>8</v>
-      </c>
-      <c r="J30" s="2">
-        <v>9</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1332,33 +1309,15 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="9">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2">
-        <v>3</v>
-      </c>
-      <c r="E31" s="2">
-        <v>4</v>
-      </c>
-      <c r="F31" s="2">
-        <v>5</v>
-      </c>
-      <c r="G31" s="2">
-        <v>6</v>
-      </c>
-      <c r="H31" s="2">
-        <v>7</v>
-      </c>
-      <c r="I31" s="2">
-        <v>8</v>
-      </c>
-      <c r="J31" s="2">
-        <v>9</v>
-      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1372,33 +1331,15 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2">
-        <v>3</v>
-      </c>
-      <c r="E32" s="2">
-        <v>4</v>
-      </c>
-      <c r="F32" s="2">
-        <v>5</v>
-      </c>
-      <c r="G32" s="2">
-        <v>6</v>
-      </c>
-      <c r="H32" s="2">
-        <v>7</v>
-      </c>
-      <c r="I32" s="2">
-        <v>8</v>
-      </c>
-      <c r="J32" s="2">
-        <v>9</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1566,19 +1507,19 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -1588,19 +1529,19 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -1610,19 +1551,19 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -1632,19 +1573,19 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -1654,19 +1595,19 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -1676,19 +1617,19 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -1698,19 +1639,19 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -1720,19 +1661,19 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -1742,19 +1683,19 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -1764,19 +1705,19 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -1786,19 +1727,19 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -1808,19 +1749,19 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -1830,19 +1771,19 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -1852,19 +1793,19 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -1874,19 +1815,19 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -1896,19 +1837,19 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -1918,19 +1859,19 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -1940,19 +1881,19 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -1962,19 +1903,19 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -1984,19 +1925,19 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -2006,19 +1947,19 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
@@ -2028,19 +1969,19 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -2050,19 +1991,19 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -2072,19 +2013,19 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
@@ -2094,19 +2035,19 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -2116,19 +2057,19 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -2138,19 +2079,19 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -2160,19 +2101,19 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -2182,19 +2123,19 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -2204,19 +2145,19 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -2226,19 +2167,19 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -2248,19 +2189,19 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -2270,19 +2211,19 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -2292,19 +2233,19 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -2314,19 +2255,19 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -2336,19 +2277,19 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -2358,19 +2299,19 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -2380,19 +2321,19 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -2402,19 +2343,19 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -2424,19 +2365,19 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -2446,19 +2387,19 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -2468,19 +2409,19 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -2490,19 +2431,19 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -2512,19 +2453,19 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -2534,19 +2475,19 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -2556,19 +2497,19 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -2578,19 +2519,19 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -2600,19 +2541,19 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -2622,19 +2563,19 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -2644,19 +2585,19 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -2666,19 +2607,19 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -2688,19 +2629,19 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -2710,19 +2651,19 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -2732,19 +2673,19 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -2754,19 +2695,19 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -2776,19 +2717,19 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -2798,19 +2739,19 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -2820,19 +2761,19 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -2842,19 +2783,19 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -2864,19 +2805,19 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -5107,16 +5048,19 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="12" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/styleTest.xlsx
+++ b/styleTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>公司報表_台電</t>
   </si>
@@ -59,15 +59,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>六月</t>
-  </si>
-  <si>
-    <t>七月</t>
-  </si>
-  <si>
-    <t>八月</t>
   </si>
 </sst>
 </file>
@@ -231,45 +222,6 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>320000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5143500" cy="2857500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -1126,11 +1078,11 @@
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="8" t="s">
-        <v>15</v>
+      <c r="C24" s="8">
+        <v>202206</v>
       </c>
       <c r="D24" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1139,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1158,8 +1110,8 @@
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="8" t="s">
-        <v>16</v>
+      <c r="C25" s="8">
+        <v>202207</v>
       </c>
       <c r="D25" s="2">
         <v>97</v>
@@ -1168,10 +1120,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1190,20 +1142,20 @@
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="8" t="s">
-        <v>17</v>
+      <c r="C26" s="8">
+        <v>202208</v>
       </c>
       <c r="D26" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
       <c r="F26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
